--- a/data/trans_orig/P16A07-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P16A07-Edad-trans_orig.xlsx
@@ -554,7 +554,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido antidepresivos en las dos últimas semanas en 2007 (tasa de respuesta: 99,98%)</t>
+          <t>Población según si ha consumido medicamentos antidepresivos en las dos últimas semanas en 2007 (tasa de respuesta: 99,98%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -2533,7 +2533,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido antidepresivos en las dos últimas semanas en 2012 (tasa de respuesta: 99,71%)</t>
+          <t>Población según si ha consumido medicamentos antidepresivos en las dos últimas semanas en 2012 (tasa de respuesta: 99,71%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -4512,7 +4512,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido antidepresivos en las dos últimas semanas en 2016 (tasa de respuesta: 100,0%)</t>
+          <t>Población según si ha consumido medicamentos antidepresivos en las dos últimas semanas en 2016 (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -6491,7 +6491,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido antidepresivos en las dos últimas semanas en 2023 (tasa de respuesta: 99,92%)</t>
+          <t>Población según si ha consumido medicamentos antidepresivos en las dos últimas semanas en 2023 (tasa de respuesta: 99,92%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/P16A07-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P16A07-Edad-trans_orig.xlsx
@@ -747,7 +747,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>4658</v>
+        <v>4773</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.001926361452030589</v>
@@ -756,7 +756,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.009428097064044787</v>
+        <v>0.009660048356995597</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>9</v>
@@ -765,19 +765,19 @@
         <v>8490</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>4587</v>
+        <v>3923</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>16787</v>
+        <v>15499</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01816052003975122</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.009811816158519868</v>
+        <v>0.008392212357518216</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.03590783844544772</v>
+        <v>0.03315455197347496</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>10</v>
@@ -786,19 +786,19 @@
         <v>9442</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>4637</v>
+        <v>4683</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>16320</v>
+        <v>16130</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.009819106188160657</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.004822925479242956</v>
+        <v>0.00486984302692516</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01697278014283764</v>
+        <v>0.01677505937797869</v>
       </c>
     </row>
     <row r="5">
@@ -815,7 +815,7 @@
         <v>493112</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>489406</v>
+        <v>489291</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>494064</v>
@@ -824,7 +824,7 @@
         <v>0.9980736385479694</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9905719029359568</v>
+        <v>0.9903399516430044</v>
       </c>
       <c r="I5" s="6" t="n">
         <v>1</v>
@@ -836,19 +836,19 @@
         <v>458999</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>450702</v>
+        <v>451990</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>462902</v>
+        <v>463566</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9818394799602488</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9640921615545517</v>
+        <v>0.9668454480265262</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9901881838414801</v>
+        <v>0.9916077876424823</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>978</v>
@@ -857,19 +857,19 @@
         <v>952111</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>945233</v>
+        <v>945423</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>956916</v>
+        <v>956870</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9901808938118394</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9830272198571621</v>
+        <v>0.9832249406220214</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9951770745207571</v>
+        <v>0.9951301569730748</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>8925</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>4759</v>
+        <v>4051</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>16657</v>
+        <v>16009</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01213534292151865</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.006471127833364098</v>
+        <v>0.005507529957106231</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.02264692770186795</v>
+        <v>0.02176604505377544</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>18</v>
@@ -982,19 +982,19 @@
         <v>19307</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>11842</v>
+        <v>11868</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>30118</v>
+        <v>29469</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.03086647748380455</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01893232901391862</v>
+        <v>0.01897417481214897</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.04815034474672551</v>
+        <v>0.04711239493444733</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>27</v>
@@ -1003,19 +1003,19 @@
         <v>28232</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>19074</v>
+        <v>19327</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>40222</v>
+        <v>40387</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.02074398374000245</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01401466823277308</v>
+        <v>0.01420090186542469</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.02955359889082806</v>
+        <v>0.02967514364747018</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>726564</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>718832</v>
+        <v>719480</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>730730</v>
+        <v>731438</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9878646570784814</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9773530722981328</v>
+        <v>0.9782339549462246</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.993528872166636</v>
+        <v>0.9944924700428938</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>573</v>
@@ -1053,19 +1053,19 @@
         <v>606187</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>595376</v>
+        <v>596025</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>613652</v>
+        <v>613626</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9691335225161954</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9518496552532744</v>
+        <v>0.9528876050655531</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9810676709860813</v>
+        <v>0.9810258251878512</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1267</v>
@@ -1074,19 +1074,19 @@
         <v>1332750</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1320760</v>
+        <v>1320595</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1341908</v>
+        <v>1341655</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9792560162599976</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9704464011091718</v>
+        <v>0.9703248563525297</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9859853317672269</v>
+        <v>0.9857990981345753</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>13696</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>8199</v>
+        <v>8159</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>23130</v>
+        <v>22732</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02147876118564612</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01285864099749042</v>
+        <v>0.01279504409608669</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03627371365557915</v>
+        <v>0.03564930392849145</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>25</v>
@@ -1199,19 +1199,19 @@
         <v>25532</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>16852</v>
+        <v>17658</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>37394</v>
+        <v>37434</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.03701651809923388</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.02443216245825588</v>
+        <v>0.02560096068264925</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.05421382423163333</v>
+        <v>0.05427165673070479</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>38</v>
@@ -1220,19 +1220,19 @@
         <v>39228</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>28291</v>
+        <v>27392</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>53976</v>
+        <v>52843</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02955253674745032</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02131292983135882</v>
+        <v>0.02063608608070451</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.04066287796328763</v>
+        <v>0.03980927401284898</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>623953</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>614519</v>
+        <v>614917</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>629450</v>
+        <v>629490</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9785212388143539</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9637262863444209</v>
+        <v>0.9643506960715086</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9871413590025097</v>
+        <v>0.9872049559039133</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>633</v>
@@ -1270,19 +1270,19 @@
         <v>664212</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>652350</v>
+        <v>652310</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>672892</v>
+        <v>672086</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9629834819007661</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9457861757683667</v>
+        <v>0.945728343269295</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.975567837541744</v>
+        <v>0.9743990393173506</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1232</v>
@@ -1291,19 +1291,19 @@
         <v>1288166</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1273418</v>
+        <v>1274551</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1299103</v>
+        <v>1300002</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9704474632525497</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9593371220367124</v>
+        <v>0.9601907259871513</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9786870701686412</v>
+        <v>0.9793639139192956</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>11725</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>5858</v>
+        <v>5783</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>20337</v>
+        <v>20387</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02258483686733575</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01128318107889491</v>
+        <v>0.01113916783994079</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03917298168993082</v>
+        <v>0.03926925846990039</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>45</v>
@@ -1416,19 +1416,19 @@
         <v>46033</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>34796</v>
+        <v>34741</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>60334</v>
+        <v>59539</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.08927289061569139</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.0674807266838479</v>
+        <v>0.06737413300681937</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1170073251428089</v>
+        <v>0.1154652009090516</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>56</v>
@@ -1437,19 +1437,19 @@
         <v>57758</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>43836</v>
+        <v>44099</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>72740</v>
+        <v>74369</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.05581592035873371</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.0423622446065921</v>
+        <v>0.04261616969472743</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.07029432284435425</v>
+        <v>0.0718684098995916</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>507422</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>498810</v>
+        <v>498760</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>513289</v>
+        <v>513364</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9774151631326643</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9608270183100691</v>
+        <v>0.9607307415300996</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9887168189211052</v>
+        <v>0.9888608321600592</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>457</v>
@@ -1487,19 +1487,19 @@
         <v>469609</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>455308</v>
+        <v>456103</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>480846</v>
+        <v>480901</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9107271093843086</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8829926748571909</v>
+        <v>0.8845347990909485</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.932519273316152</v>
+        <v>0.9326258669931806</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>930</v>
@@ -1508,19 +1508,19 @@
         <v>977031</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>962049</v>
+        <v>960420</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>990953</v>
+        <v>990690</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9441840796412663</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9297056771556458</v>
+        <v>0.9281315901004085</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.957637755393408</v>
+        <v>0.9573838303052726</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>13912</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>8410</v>
+        <v>8020</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>23208</v>
+        <v>22554</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.0359756700745422</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.02174637465083629</v>
+        <v>0.0207387539994429</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.06001485017863707</v>
+        <v>0.05832235590536301</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>49</v>
@@ -1633,19 +1633,19 @@
         <v>50759</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>38569</v>
+        <v>38328</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>65074</v>
+        <v>64723</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1256450760506297</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.09547007050216487</v>
+        <v>0.09487505391785878</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1610805042483811</v>
+        <v>0.1602120620849996</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>64</v>
@@ -1654,19 +1654,19 @@
         <v>64671</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>50557</v>
+        <v>50258</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>81782</v>
+        <v>79298</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.08178996799592225</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.06394025163893124</v>
+        <v>0.06356182260452592</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1034300728894569</v>
+        <v>0.100289045494442</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>372798</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>363502</v>
+        <v>364156</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>378300</v>
+        <v>378690</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9640243299254578</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9399851498213629</v>
+        <v>0.9416776440946368</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9782536253491637</v>
+        <v>0.979261246000557</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>347</v>
@@ -1704,19 +1704,19 @@
         <v>353227</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>338912</v>
+        <v>339263</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>365417</v>
+        <v>365658</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8743549239493702</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8389194957516189</v>
+        <v>0.8397879379150005</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9045299294978352</v>
+        <v>0.9051249460821412</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>724</v>
@@ -1725,19 +1725,19 @@
         <v>726025</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>708914</v>
+        <v>711398</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>740139</v>
+        <v>740438</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9182100320040777</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8965699271105431</v>
+        <v>0.8997109545055575</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9360597483610688</v>
+        <v>0.9364381773954741</v>
       </c>
     </row>
     <row r="18">
@@ -1829,19 +1829,19 @@
         <v>10989</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>6116</v>
+        <v>5757</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>17261</v>
+        <v>18803</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.03755869041048822</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.0209029256174018</v>
+        <v>0.01967763689476582</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.05899638965273399</v>
+        <v>0.06426706009491986</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>37</v>
@@ -1850,19 +1850,19 @@
         <v>35039</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>24850</v>
+        <v>25152</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>46584</v>
+        <v>46830</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1021752017843148</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.07246217742390328</v>
+        <v>0.07334356383259771</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1358394285966149</v>
+        <v>0.1365558023630468</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>49</v>
@@ -1871,19 +1871,19 @@
         <v>46028</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>34691</v>
+        <v>34156</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>58760</v>
+        <v>58844</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.0724266776941878</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.05458752873368638</v>
+        <v>0.05374446222247195</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.09246061281043144</v>
+        <v>0.09259270072567533</v>
       </c>
     </row>
     <row r="20">
@@ -1900,19 +1900,19 @@
         <v>281594</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>275322</v>
+        <v>273780</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>286467</v>
+        <v>286826</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9624413095895118</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9410036103472661</v>
+        <v>0.9357329399050802</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9790970743825983</v>
+        <v>0.9803223631052342</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>334</v>
@@ -1921,19 +1921,19 @@
         <v>307895</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>296350</v>
+        <v>296104</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>318084</v>
+        <v>317782</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8978247982156852</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8641605714033851</v>
+        <v>0.8634441976369532</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9275378225760966</v>
+        <v>0.9266564361674023</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>625</v>
@@ -1942,19 +1942,19 @@
         <v>589489</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>576757</v>
+        <v>576673</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>600826</v>
+        <v>601361</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9275733223058122</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9075393871895686</v>
+        <v>0.9074072992743246</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9454124712663136</v>
+        <v>0.946255537777528</v>
       </c>
     </row>
     <row r="21">
@@ -2046,19 +2046,19 @@
         <v>9901</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>5345</v>
+        <v>5261</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>17664</v>
+        <v>18074</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.04717258677424292</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.02546837062547231</v>
+        <v>0.02506692279348852</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.0841626849609103</v>
+        <v>0.08611623224070462</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>28</v>
@@ -2067,19 +2067,19 @@
         <v>33021</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>22571</v>
+        <v>23048</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>46175</v>
+        <v>46258</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.09889298071225784</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.06759551285390905</v>
+        <v>0.06902486754145047</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1382876978038547</v>
+        <v>0.13853479458878</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>38</v>
@@ -2088,19 +2088,19 @@
         <v>42922</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>31021</v>
+        <v>31091</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>56688</v>
+        <v>58518</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.07893084119586677</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.05704612791043526</v>
+        <v>0.05717416691885756</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1042452349146541</v>
+        <v>0.1076113667776022</v>
       </c>
     </row>
     <row r="23">
@@ -2117,19 +2117,19 @@
         <v>199982</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>192219</v>
+        <v>191809</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>204538</v>
+        <v>204622</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.952827413225757</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9158373150390904</v>
+        <v>0.9138837677592959</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9745316293745278</v>
+        <v>0.9749330772065116</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>262</v>
@@ -2138,19 +2138,19 @@
         <v>300887</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>287733</v>
+        <v>287650</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>311337</v>
+        <v>310860</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9011070192877422</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.861712302196145</v>
+        <v>0.86146520541122</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9324044871460908</v>
+        <v>0.9309751324585495</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>472</v>
@@ -2159,19 +2159,19 @@
         <v>500869</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>487103</v>
+        <v>485273</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>512770</v>
+        <v>512700</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9210691588041332</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.8957547650853452</v>
+        <v>0.8923886332223978</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9429538720895645</v>
+        <v>0.9428258330811424</v>
       </c>
     </row>
     <row r="24">
@@ -2263,19 +2263,19 @@
         <v>70100</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>55517</v>
+        <v>54636</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>87702</v>
+        <v>87671</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.02140109842982431</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.01694897188657182</v>
+        <v>0.01668021194223581</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.02677481713909925</v>
+        <v>0.02676556389797543</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>211</v>
@@ -2284,19 +2284,19 @@
         <v>218181</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>191588</v>
+        <v>191645</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>247905</v>
+        <v>251510</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.06456586112839455</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.05669620558517999</v>
+        <v>0.0567132671622901</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.07336208737893515</v>
+        <v>0.07442887647006782</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>282</v>
@@ -2305,19 +2305,19 @@
         <v>288281</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>257349</v>
+        <v>253295</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>321761</v>
+        <v>321010</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.04331970597573254</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.03867166299025256</v>
+        <v>0.03806250496946381</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.0483507486051948</v>
+        <v>0.04823790714918692</v>
       </c>
     </row>
     <row r="26">
@@ -2334,19 +2334,19 @@
         <v>3205425</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3187823</v>
+        <v>3187854</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3220008</v>
+        <v>3220889</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9785989015701757</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9732251828609008</v>
+        <v>0.9732344361020245</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9830510281134283</v>
+        <v>0.9833197880577643</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>3086</v>
@@ -2355,19 +2355,19 @@
         <v>3161016</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3131292</v>
+        <v>3127687</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>3187609</v>
+        <v>3187552</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9354341388716054</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9266379126210648</v>
+        <v>0.9255711235299322</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9433037944148199</v>
+        <v>0.9432867328377098</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>6228</v>
@@ -2376,19 +2376,19 @@
         <v>6366441</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>6332961</v>
+        <v>6333712</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>6397373</v>
+        <v>6401427</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9566802940242675</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9516492513948053</v>
+        <v>0.9517620928508129</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9613283370097477</v>
+        <v>0.961937495030536</v>
       </c>
     </row>
     <row r="27">
@@ -2723,19 +2723,19 @@
         <v>2837</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>809</v>
+        <v>813</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>7293</v>
+        <v>8809</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.006261666205600625</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.001784470372074187</v>
+        <v>0.001795339539352734</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01609614369488343</v>
+        <v>0.01944221375207103</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>3</v>
@@ -2744,19 +2744,19 @@
         <v>3033</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>979</v>
+        <v>985</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>8095</v>
+        <v>9096</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.007079032986890802</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.002284386311086433</v>
+        <v>0.002300226331514798</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.01889666737011859</v>
+        <v>0.02123251231432903</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>6</v>
@@ -2765,19 +2765,19 @@
         <v>5870</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>2564</v>
+        <v>2087</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>12114</v>
+        <v>11920</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.006658898425444815</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.002908196652391156</v>
+        <v>0.002367335292510647</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01374182535594613</v>
+        <v>0.01352208798315441</v>
       </c>
     </row>
     <row r="5">
@@ -2794,19 +2794,19 @@
         <v>450268</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>445812</v>
+        <v>444296</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>452296</v>
+        <v>452292</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9937383337943994</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9839038563051166</v>
+        <v>0.980557786247929</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9982155296279258</v>
+        <v>0.9982046604606473</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>416</v>
@@ -2815,19 +2815,19 @@
         <v>425373</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>420311</v>
+        <v>419310</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>427427</v>
+        <v>427421</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9929209670131092</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9811033326298815</v>
+        <v>0.978767487685671</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9977156136889136</v>
+        <v>0.9976997736684852</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>858</v>
@@ -2836,19 +2836,19 @@
         <v>875641</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>869397</v>
+        <v>869591</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>878947</v>
+        <v>879424</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9933411015745551</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9862581746440539</v>
+        <v>0.9864779120168456</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9970918033476091</v>
+        <v>0.9976326647074895</v>
       </c>
     </row>
     <row r="6">
@@ -2940,19 +2940,19 @@
         <v>10687</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>4974</v>
+        <v>5047</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>21793</v>
+        <v>20739</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01557307665668309</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.007247718470403178</v>
+        <v>0.007355279049775637</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.03175700528959492</v>
+        <v>0.03022066085950718</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>18</v>
@@ -2961,19 +2961,19 @@
         <v>19298</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>11564</v>
+        <v>11536</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>30789</v>
+        <v>29580</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.03167694587403323</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01898173312602167</v>
+        <v>0.01893525568586286</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.05053944923484897</v>
+        <v>0.04855423366646189</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>27</v>
@@ -2982,19 +2982,19 @@
         <v>29985</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>19863</v>
+        <v>19636</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>43885</v>
+        <v>42222</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.02314626549521255</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.0153328746014718</v>
+        <v>0.01515795101825451</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.03387601352528122</v>
+        <v>0.032592232202703</v>
       </c>
     </row>
     <row r="8">
@@ -3011,19 +3011,19 @@
         <v>675551</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>664445</v>
+        <v>665499</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>681264</v>
+        <v>681191</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9844269233433169</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9682429947104054</v>
+        <v>0.969779339140493</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9927522815295968</v>
+        <v>0.9926447209502244</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>552</v>
@@ -3032,19 +3032,19 @@
         <v>589916</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>578425</v>
+        <v>579634</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>597650</v>
+        <v>597678</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9683230541259668</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9494605507651516</v>
+        <v>0.9514457663335383</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9810182668739783</v>
+        <v>0.9810647443141371</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1209</v>
@@ -3053,19 +3053,19 @@
         <v>1265466</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1251566</v>
+        <v>1253229</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1275588</v>
+        <v>1275815</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9768537345047874</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9661239864747186</v>
+        <v>0.967407767797296</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.984667125398528</v>
+        <v>0.9848420489817453</v>
       </c>
     </row>
     <row r="9">
@@ -3157,19 +3157,19 @@
         <v>21483</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>12892</v>
+        <v>12687</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>33767</v>
+        <v>33541</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.03158953538562188</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01895703964729089</v>
+        <v>0.01865572613999117</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.04965408390850837</v>
+        <v>0.04932160430735908</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>53</v>
@@ -3178,19 +3178,19 @@
         <v>56323</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>42550</v>
+        <v>43874</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>72218</v>
+        <v>73398</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.07959141040324268</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.0601277520223072</v>
+        <v>0.06199907709405092</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1020531585741783</v>
+        <v>0.1037204245060443</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>71</v>
@@ -3199,19 +3199,19 @@
         <v>77806</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>58895</v>
+        <v>60666</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>97229</v>
+        <v>96484</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.05606783584104905</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.04244073231696492</v>
+        <v>0.04371667890107873</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.07006422364527244</v>
+        <v>0.06952742355914734</v>
       </c>
     </row>
     <row r="11">
@@ -3228,19 +3228,19 @@
         <v>658571</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>646287</v>
+        <v>646513</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>667162</v>
+        <v>667367</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9684104646143781</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9503459160914915</v>
+        <v>0.9506783956926409</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9810429603527091</v>
+        <v>0.9813442738600088</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>611</v>
@@ -3249,19 +3249,19 @@
         <v>651331</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>635436</v>
+        <v>634256</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>665104</v>
+        <v>663780</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9204085895967573</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8979468414258215</v>
+        <v>0.8962795754939556</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9398722479776922</v>
+        <v>0.9380009229059491</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1242</v>
@@ -3270,19 +3270,19 @@
         <v>1309902</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1290479</v>
+        <v>1291224</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1328813</v>
+        <v>1327042</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.943932164158951</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9299357763547277</v>
+        <v>0.930472576440852</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9575592676830351</v>
+        <v>0.956283321098921</v>
       </c>
     </row>
     <row r="12">
@@ -3374,19 +3374,19 @@
         <v>20833</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>12660</v>
+        <v>12641</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>31675</v>
+        <v>32582</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.03389541351929244</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02059825579387906</v>
+        <v>0.02056805837660191</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.05153568132601651</v>
+        <v>0.05301123435199165</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>54</v>
@@ -3395,19 +3395,19 @@
         <v>57101</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>44553</v>
+        <v>43389</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>73572</v>
+        <v>72237</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.09298738837587082</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.07255369661022404</v>
+        <v>0.0706585377635994</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1198092937263153</v>
+        <v>0.1176354806159496</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>72</v>
@@ -3416,19 +3416,19 @@
         <v>77934</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>62463</v>
+        <v>61507</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>97243</v>
+        <v>97172</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.06342831653953102</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.05083697103530659</v>
+        <v>0.05005908162588021</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.07914403344242073</v>
+        <v>0.07908554432502045</v>
       </c>
     </row>
     <row r="14">
@@ -3445,19 +3445,19 @@
         <v>593784</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>582942</v>
+        <v>582035</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>601957</v>
+        <v>601976</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9661045864807075</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9484643186739835</v>
+        <v>0.9469887656480085</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.979401744206121</v>
+        <v>0.9794319416233981</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>483</v>
@@ -3466,19 +3466,19 @@
         <v>556971</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>540500</v>
+        <v>541835</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>569519</v>
+        <v>570683</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9070126116241292</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8801907062736849</v>
+        <v>0.8823645193840505</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9274463033897761</v>
+        <v>0.9293414622364007</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1013</v>
@@ -3487,19 +3487,19 @@
         <v>1150755</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1131446</v>
+        <v>1131517</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1166226</v>
+        <v>1167182</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.936571683460469</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9208559665575794</v>
+        <v>0.9209144556749795</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9491630289646934</v>
+        <v>0.9499409183741194</v>
       </c>
     </row>
     <row r="15">
@@ -3591,19 +3591,19 @@
         <v>24805</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>15229</v>
+        <v>15287</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>36891</v>
+        <v>37188</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.05804988930764722</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.03563927925894281</v>
+        <v>0.03577519824662492</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.08633438110503547</v>
+        <v>0.08703031305409666</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>68</v>
@@ -3612,19 +3612,19 @@
         <v>71123</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>55778</v>
+        <v>56358</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>87576</v>
+        <v>86799</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1588267892411642</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1245593031758442</v>
+        <v>0.1258555079581841</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1955700047056407</v>
+        <v>0.1938342216553898</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>91</v>
@@ -3633,19 +3633,19 @@
         <v>95927</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>78907</v>
+        <v>77972</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>115903</v>
+        <v>115019</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1096185921784195</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.09016841436960733</v>
+        <v>0.08910102520668274</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1324448876920447</v>
+        <v>0.1314348670291461</v>
       </c>
     </row>
     <row r="17">
@@ -3662,19 +3662,19 @@
         <v>402497</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>390411</v>
+        <v>390114</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>412073</v>
+        <v>412015</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9419501106923528</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9136656188949659</v>
+        <v>0.9129696869459034</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9643607207410573</v>
+        <v>0.9642248017533751</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>338</v>
@@ -3683,19 +3683,19 @@
         <v>376677</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>360224</v>
+        <v>361001</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>392022</v>
+        <v>391442</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8411732107588358</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8044299952943593</v>
+        <v>0.8061657783446106</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8754406968241559</v>
+        <v>0.8741444920418164</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>706</v>
@@ -3704,19 +3704,19 @@
         <v>779175</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>759199</v>
+        <v>760083</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>796195</v>
+        <v>797130</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8903814078215805</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8675551123079553</v>
+        <v>0.868565132970854</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9098315856303929</v>
+        <v>0.9108989747933173</v>
       </c>
     </row>
     <row r="18">
@@ -3808,19 +3808,19 @@
         <v>13362</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>7332</v>
+        <v>7164</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>22827</v>
+        <v>22991</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.04341119744739978</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.02382206227157961</v>
+        <v>0.02327563256928758</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.07416319537042772</v>
+        <v>0.07469643214406746</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>46</v>
@@ -3829,19 +3829,19 @@
         <v>46122</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>35292</v>
+        <v>34398</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>60372</v>
+        <v>58880</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.130290425324245</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.09969713575117052</v>
+        <v>0.09717173061889244</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1705437286851916</v>
+        <v>0.1663290560503246</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>58</v>
@@ -3850,19 +3850,19 @@
         <v>59484</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>45972</v>
+        <v>46217</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>75802</v>
+        <v>76002</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.0898834170278284</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.06946587952830091</v>
+        <v>0.06983551863146026</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1145400987243494</v>
+        <v>0.1148422011107696</v>
       </c>
     </row>
     <row r="20">
@@ -3879,19 +3879,19 @@
         <v>294433</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>284968</v>
+        <v>284804</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>300463</v>
+        <v>300631</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9565888025526003</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9258368046295724</v>
+        <v>0.9253035678559325</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9761779377284204</v>
+        <v>0.9767243674307124</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>298</v>
@@ -3900,19 +3900,19 @@
         <v>307874</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>293624</v>
+        <v>295116</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>318704</v>
+        <v>319598</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.869709574675755</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8294562713148091</v>
+        <v>0.8336709439496752</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9003028642488297</v>
+        <v>0.9028282693811075</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>567</v>
@@ -3921,19 +3921,19 @@
         <v>602307</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>585989</v>
+        <v>585789</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>615819</v>
+        <v>615574</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9101165829721716</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8854599012756507</v>
+        <v>0.8851577988892305</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.930534120471699</v>
+        <v>0.9301644813685398</v>
       </c>
     </row>
     <row r="21">
@@ -4025,19 +4025,19 @@
         <v>13826</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>7265</v>
+        <v>7449</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>24569</v>
+        <v>23488</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.05551953546722677</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.02917374780772107</v>
+        <v>0.02991233509069142</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.09865715619256306</v>
+        <v>0.09431407235470311</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>39</v>
@@ -4046,19 +4046,19 @@
         <v>43605</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>31640</v>
+        <v>32192</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>57188</v>
+        <v>57881</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1130631890229701</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.08203777054902768</v>
+        <v>0.08347052152931934</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1482798258024641</v>
+        <v>0.1500779533912947</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>51</v>
@@ -4067,19 +4067,19 @@
         <v>57432</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>44409</v>
+        <v>43528</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>73416</v>
+        <v>73448</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.09048520723109275</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.06996811559915375</v>
+        <v>0.06857937840123932</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1156679980356775</v>
+        <v>0.115719706961504</v>
       </c>
     </row>
     <row r="23">
@@ -4096,19 +4096,19 @@
         <v>235210</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>224467</v>
+        <v>225548</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>241771</v>
+        <v>241587</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9444804645327732</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9013428438074368</v>
+        <v>0.9056859276452969</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9708262521922789</v>
+        <v>0.9700876649093086</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>308</v>
@@ -4117,19 +4117,19 @@
         <v>342068</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>328485</v>
+        <v>327792</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>354033</v>
+        <v>353481</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.8869368109770299</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.8517201741975358</v>
+        <v>0.8499220466087049</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9179622294509721</v>
+        <v>0.9165294784706804</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>517</v>
@@ -4138,19 +4138,19 @@
         <v>577277</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>561293</v>
+        <v>561261</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>590300</v>
+        <v>591181</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9095147927689072</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.8843320019643225</v>
+        <v>0.884280293038496</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9300318844008463</v>
+        <v>0.9314206215987607</v>
       </c>
     </row>
     <row r="24">
@@ -4242,19 +4242,19 @@
         <v>107832</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>86787</v>
+        <v>85970</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>132308</v>
+        <v>129924</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.03154699536532063</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.02538995448569331</v>
+        <v>0.02515105171171897</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.03870741165667632</v>
+        <v>0.03801009333163842</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>281</v>
@@ -4263,19 +4263,19 @@
         <v>296605</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>262999</v>
+        <v>264561</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>329649</v>
+        <v>329977</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.08362580029635214</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.07415071258014891</v>
+        <v>0.07459121020473394</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.09294212985307433</v>
+        <v>0.09303465425225178</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>376</v>
@@ -4284,19 +4284,19 @@
         <v>404437</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>366093</v>
+        <v>369625</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>449085</v>
+        <v>449055</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.05806743999953558</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.05256217387374502</v>
+        <v>0.05306928403960113</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.06447780230015633</v>
+        <v>0.06447346357131743</v>
       </c>
     </row>
     <row r="26">
@@ -4313,19 +4313,19 @@
         <v>3310315</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3285839</v>
+        <v>3288223</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3331360</v>
+        <v>3332177</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9684530046346793</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9612925883433239</v>
+        <v>0.9619899066683617</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9746100455143067</v>
+        <v>0.9748489482882811</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>3006</v>
@@ -4334,19 +4334,19 @@
         <v>3250210</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3217166</v>
+        <v>3216838</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>3283816</v>
+        <v>3282254</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9163741997036479</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9070578701469256</v>
+        <v>0.9069653457477481</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9258492874198512</v>
+        <v>0.9254087897952655</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>6112</v>
@@ -4355,19 +4355,19 @@
         <v>6560524</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>6515876</v>
+        <v>6515906</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>6598868</v>
+        <v>6595336</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9419325600004644</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9355221976998437</v>
+        <v>0.9355265364286828</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9474378261262549</v>
+        <v>0.946930715960399</v>
       </c>
     </row>
     <row r="27">
@@ -4705,7 +4705,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>7093</v>
+        <v>6272</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.004849355779247833</v>
@@ -4714,7 +4714,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01691007203021093</v>
+        <v>0.01495221630667744</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>3</v>
@@ -4723,19 +4723,19 @@
         <v>2880</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>919</v>
+        <v>915</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>7762</v>
+        <v>7714</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.007277929608862263</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.002322871917208836</v>
+        <v>0.002311903090449101</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.01961409707601313</v>
+        <v>0.01949265895490564</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>5</v>
@@ -4744,19 +4744,19 @@
         <v>4914</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1915</v>
+        <v>1925</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>11130</v>
+        <v>11067</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.006028329061727268</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.002349315328554885</v>
+        <v>0.002360824664452875</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.0136522410328933</v>
+        <v>0.01357527403582853</v>
       </c>
     </row>
     <row r="5">
@@ -4773,7 +4773,7 @@
         <v>417429</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>412370</v>
+        <v>413191</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>419463</v>
@@ -4782,7 +4782,7 @@
         <v>0.9951506442207522</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.983089927969789</v>
+        <v>0.985047783693323</v>
       </c>
       <c r="I5" s="6" t="n">
         <v>1</v>
@@ -4794,19 +4794,19 @@
         <v>392875</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>387993</v>
+        <v>388041</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>394836</v>
+        <v>394840</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9927220703911377</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9803859029239869</v>
+        <v>0.9805073410450942</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9976771280827912</v>
+        <v>0.9976880969095508</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>792</v>
@@ -4815,19 +4815,19 @@
         <v>810304</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>804088</v>
+        <v>804151</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>813303</v>
+        <v>813293</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9939716709382728</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9863477589671066</v>
+        <v>0.9864247259641714</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9976506846714451</v>
+        <v>0.9976391753355471</v>
       </c>
     </row>
     <row r="6">
@@ -4919,19 +4919,19 @@
         <v>5904</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>2002</v>
+        <v>2873</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>11759</v>
+        <v>12756</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.009997868918436931</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.003389825410081216</v>
+        <v>0.004864653881433942</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.01991366714231794</v>
+        <v>0.0216017668188422</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>12</v>
@@ -4940,19 +4940,19 @@
         <v>11813</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>6729</v>
+        <v>6768</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>19915</v>
+        <v>20348</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.0209620092931395</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.0119413869715246</v>
+        <v>0.01200964966172793</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.03533858026375265</v>
+        <v>0.03610776775234452</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>18</v>
@@ -4961,19 +4961,19 @@
         <v>17717</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>11285</v>
+        <v>11249</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>27303</v>
+        <v>26927</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01535190547351865</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.009779117402127115</v>
+        <v>0.009747896546166597</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.02365900812910886</v>
+        <v>0.02333307234881491</v>
       </c>
     </row>
     <row r="8">
@@ -4990,19 +4990,19 @@
         <v>584592</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>578737</v>
+        <v>577740</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>588494</v>
+        <v>587623</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9900021310815631</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9800863328576821</v>
+        <v>0.9783982331811578</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9966101745899189</v>
+        <v>0.995135346118566</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>567</v>
@@ -5011,19 +5011,19 @@
         <v>551731</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>543629</v>
+        <v>543196</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>556815</v>
+        <v>556776</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9790379907068605</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.964661419736247</v>
+        <v>0.9638922322476557</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9880586130284751</v>
+        <v>0.9879903503382721</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1128</v>
@@ -5032,19 +5032,19 @@
         <v>1136323</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1126737</v>
+        <v>1127113</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1142755</v>
+        <v>1142791</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9846480945264814</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9763409918708912</v>
+        <v>0.9766669276511851</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9902208825978729</v>
+        <v>0.9902521034538336</v>
       </c>
     </row>
     <row r="9">
@@ -5136,19 +5136,19 @@
         <v>13954</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>8352</v>
+        <v>7388</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>22871</v>
+        <v>22396</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02085559431743728</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01248266140389457</v>
+        <v>0.01104142752493553</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03418202444382936</v>
+        <v>0.03347187625323786</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>29</v>
@@ -5157,19 +5157,19 @@
         <v>27904</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>19254</v>
+        <v>19169</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>39352</v>
+        <v>38952</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.04218975423325006</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.02911140421016174</v>
+        <v>0.02898316160161795</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.05949899083562896</v>
+        <v>0.05889383815936532</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>43</v>
@@ -5178,19 +5178,19 @@
         <v>41858</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>31006</v>
+        <v>30376</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>56136</v>
+        <v>55762</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.03146085644440154</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.0233046043953602</v>
+        <v>0.02283047216480594</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.04219200500271034</v>
+        <v>0.04191090627451628</v>
       </c>
     </row>
     <row r="11">
@@ -5207,19 +5207,19 @@
         <v>655143</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>646226</v>
+        <v>646701</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>660745</v>
+        <v>661709</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9791444056825627</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9658179755561707</v>
+        <v>0.9665281237467621</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9875173385961055</v>
+        <v>0.9889585724750645</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>636</v>
@@ -5228,19 +5228,19 @@
         <v>633482</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>622034</v>
+        <v>622434</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>642132</v>
+        <v>642217</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9578102457667499</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9405010091643711</v>
+        <v>0.9411061618406352</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9708885957898383</v>
+        <v>0.9710168383983822</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1260</v>
@@ -5249,19 +5249,19 @@
         <v>1288625</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1274347</v>
+        <v>1274721</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1299477</v>
+        <v>1300107</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9685391435555984</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9578079949972895</v>
+        <v>0.9580890937254839</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9766953956046397</v>
+        <v>0.9771695278351941</v>
       </c>
     </row>
     <row r="12">
@@ -5353,19 +5353,19 @@
         <v>16295</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>9254</v>
+        <v>9460</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>25804</v>
+        <v>25939</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02522298095528218</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01432460996819936</v>
+        <v>0.01464286544526162</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03994197246802675</v>
+        <v>0.04015013263614135</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>51</v>
@@ -5374,19 +5374,19 @@
         <v>55467</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>42244</v>
+        <v>42655</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>71513</v>
+        <v>73206</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.08545547216125836</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.06508293428234334</v>
+        <v>0.0657167568101787</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1101768629942998</v>
+        <v>0.1127850040051922</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>67</v>
@@ -5395,19 +5395,19 @@
         <v>71762</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>56813</v>
+        <v>57200</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>91970</v>
+        <v>90588</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.05540965317707242</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.04386690789492798</v>
+        <v>0.04416525667805771</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.07101220721131769</v>
+        <v>0.06994542103048024</v>
       </c>
     </row>
     <row r="14">
@@ -5424,19 +5424,19 @@
         <v>629753</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>620244</v>
+        <v>620109</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>636794</v>
+        <v>636588</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9747770190447178</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9600580275319733</v>
+        <v>0.9598498673638582</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9856753900318007</v>
+        <v>0.9853571345547377</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>551</v>
@@ -5445,19 +5445,19 @@
         <v>593610</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>577564</v>
+        <v>575871</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>606833</v>
+        <v>606422</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9145445278387416</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8898231370057005</v>
+        <v>0.8872149959948078</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9349170657176568</v>
+        <v>0.9342832431898214</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1117</v>
@@ -5466,19 +5466,19 @@
         <v>1223363</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1203155</v>
+        <v>1204537</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1238312</v>
+        <v>1237925</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9445903468229275</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9289877927886823</v>
+        <v>0.9300545789695197</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.956133092105072</v>
+        <v>0.9558347433219423</v>
       </c>
     </row>
     <row r="15">
@@ -5570,19 +5570,19 @@
         <v>19119</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>10945</v>
+        <v>11131</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>30512</v>
+        <v>30371</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.04000580754395501</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.02290058027212557</v>
+        <v>0.0232904673800151</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.06384328873052217</v>
+        <v>0.06354908744779494</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>50</v>
@@ -5591,19 +5591,19 @@
         <v>55933</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>42244</v>
+        <v>42511</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>71902</v>
+        <v>72576</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.112576328917328</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.08502382673557915</v>
+        <v>0.08556087974824107</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.144716931545365</v>
+        <v>0.1460732591301455</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>66</v>
@@ -5612,19 +5612,19 @@
         <v>75053</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>58717</v>
+        <v>58277</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>96731</v>
+        <v>93314</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.07699576625174197</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.06023727870108032</v>
+        <v>0.05978590444281357</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.0992351964057261</v>
+        <v>0.09572980946169177</v>
       </c>
     </row>
     <row r="17">
@@ -5641,19 +5641,19 @@
         <v>458799</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>447406</v>
+        <v>447547</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>466973</v>
+        <v>466787</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.959994192456045</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.936156711269478</v>
+        <v>0.9364509125522053</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9770994197278744</v>
+        <v>0.9767095326199849</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>383</v>
@@ -5662,19 +5662,19 @@
         <v>440916</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>424947</v>
+        <v>424273</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>454605</v>
+        <v>454338</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8874236710826719</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8552830684546349</v>
+        <v>0.8539267408698544</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9149761732644206</v>
+        <v>0.9144391202517588</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>791</v>
@@ -5683,19 +5683,19 @@
         <v>899714</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>878036</v>
+        <v>881453</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>916050</v>
+        <v>916490</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.923004233748258</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9007648035942738</v>
+        <v>0.9042701905383081</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9397627212989197</v>
+        <v>0.9402140955571865</v>
       </c>
     </row>
     <row r="18">
@@ -5787,19 +5787,19 @@
         <v>6627</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>2787</v>
+        <v>2883</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>12742</v>
+        <v>14516</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.01982078739565182</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.008336796106436941</v>
+        <v>0.008624595935403993</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.03811236515744624</v>
+        <v>0.04341689413366886</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>46</v>
@@ -5808,19 +5808,19 @@
         <v>50515</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>37116</v>
+        <v>39056</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>64150</v>
+        <v>66311</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.133722969131651</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.0982527206969239</v>
+        <v>0.1033886486713879</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1698148466859347</v>
+        <v>0.1755353089969098</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>53</v>
@@ -5829,19 +5829,19 @@
         <v>57142</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>43300</v>
+        <v>43531</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>72872</v>
+        <v>73477</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.08024544625120876</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.06080608504035458</v>
+        <v>0.06113050331482303</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1023357084658979</v>
+        <v>0.1031841635575993</v>
       </c>
     </row>
     <row r="20">
@@ -5858,19 +5858,19 @@
         <v>327703</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>321588</v>
+        <v>319814</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>331543</v>
+        <v>331447</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9801792126043481</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9618876348425538</v>
+        <v>0.9565831058663311</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9916632038935631</v>
+        <v>0.991375404064596</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>308</v>
@@ -5879,19 +5879,19 @@
         <v>327247</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>313612</v>
+        <v>311451</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>340646</v>
+        <v>338706</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.866277030868349</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8301851533140652</v>
+        <v>0.8244646910030903</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9017472793030759</v>
+        <v>0.896611351328612</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>626</v>
@@ -5900,19 +5900,19 @@
         <v>654950</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>639220</v>
+        <v>638615</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>668792</v>
+        <v>668561</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9197545537487912</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8976642915341023</v>
+        <v>0.8968158364424008</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9391939149596454</v>
+        <v>0.9388694966851771</v>
       </c>
     </row>
     <row r="21">
@@ -6004,19 +6004,19 @@
         <v>10273</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>5880</v>
+        <v>5483</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>17569</v>
+        <v>16938</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.03997382149024075</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.02287839842397681</v>
+        <v>0.02133631240104159</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.06836275911037043</v>
+        <v>0.065905783425781</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>36</v>
@@ -6025,19 +6025,19 @@
         <v>47178</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>33742</v>
+        <v>34670</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>63000</v>
+        <v>63600</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.117895919546177</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.08431953436666016</v>
+        <v>0.08663792670720145</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1574344884194766</v>
+        <v>0.1589329640277675</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>48</v>
@@ -6046,19 +6046,19 @@
         <v>57451</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>43775</v>
+        <v>43640</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>75349</v>
+        <v>74189</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.08742295997263907</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.06661166736329556</v>
+        <v>0.06640696420462955</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1146576742854671</v>
+        <v>0.1128915105588225</v>
       </c>
     </row>
     <row r="23">
@@ -6075,19 +6075,19 @@
         <v>246725</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>239429</v>
+        <v>240060</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>251118</v>
+        <v>251515</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9600261785097592</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9316372408896295</v>
+        <v>0.9340942165742191</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9771216015760231</v>
+        <v>0.9786636875989584</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>265</v>
@@ -6096,19 +6096,19 @@
         <v>352991</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>337169</v>
+        <v>336569</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>366427</v>
+        <v>365499</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.8821040804538229</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.8425655115805236</v>
+        <v>0.8410670359722325</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9156804656333399</v>
+        <v>0.9133620732927987</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>555</v>
@@ -6117,19 +6117,19 @@
         <v>599716</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>581818</v>
+        <v>582978</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>613392</v>
+        <v>613527</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.912577040027361</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.8853423257145329</v>
+        <v>0.8871084894411776</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9333883326367047</v>
+        <v>0.9335930357953707</v>
       </c>
     </row>
     <row r="24">
@@ -6221,19 +6221,19 @@
         <v>74207</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>58795</v>
+        <v>59990</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>94802</v>
+        <v>93511</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.02186187853666031</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.01732134187047071</v>
+        <v>0.01767339873282708</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.02792932627635689</v>
+        <v>0.02754892388969554</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>227</v>
@@ -6242,19 +6242,19 @@
         <v>251691</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>220800</v>
+        <v>220349</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>282448</v>
+        <v>285672</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.07100815138412862</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.06229299708715007</v>
+        <v>0.06216570752465153</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.07968540229842778</v>
+        <v>0.08059476433475893</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>300</v>
@@ -6263,19 +6263,19 @@
         <v>325898</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>289720</v>
+        <v>290895</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>364473</v>
+        <v>367374</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.04696689812950272</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.04175302855274349</v>
+        <v>0.04192243259504641</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.05252616199498613</v>
+        <v>0.05294411666640923</v>
       </c>
     </row>
     <row r="26">
@@ -6292,19 +6292,19 @@
         <v>3320143</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3299548</v>
+        <v>3300839</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3335555</v>
+        <v>3334360</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9781381214633397</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9720706737236435</v>
+        <v>0.9724510761103045</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9826786581295295</v>
+        <v>0.9823266012671731</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>3111</v>
@@ -6313,19 +6313,19 @@
         <v>3292851</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3262094</v>
+        <v>3258870</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>3323742</v>
+        <v>3324193</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9289918486158714</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9203145977015722</v>
+        <v>0.9194052356652411</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.93770700291285</v>
+        <v>0.9378342924753486</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>6269</v>
@@ -6334,19 +6334,19 @@
         <v>6612994</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>6574419</v>
+        <v>6571518</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>6649172</v>
+        <v>6647997</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9530331018704973</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9474738380050139</v>
+        <v>0.9470558833335907</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9582469714472566</v>
+        <v>0.9580775674049535</v>
       </c>
     </row>
     <row r="27">
@@ -6684,7 +6684,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>10762</v>
+        <v>10010</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.007260731945205652</v>
@@ -6693,7 +6693,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02639134675220782</v>
+        <v>0.02454764659949141</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>4</v>
@@ -6702,19 +6702,19 @@
         <v>7804</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>2185</v>
+        <v>2161</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>19352</v>
+        <v>19736</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02152781454338538</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.006027811605279041</v>
+        <v>0.005960569521418742</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.05338280380669311</v>
+        <v>0.05444304940774617</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>6</v>
@@ -6723,19 +6723,19 @@
         <v>10765</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>3951</v>
+        <v>4494</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>21888</v>
+        <v>21512</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01397494000182284</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.005129308211472803</v>
+        <v>0.005833681442540147</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02841434479539593</v>
+        <v>0.02792663882008973</v>
       </c>
     </row>
     <row r="5">
@@ -6752,7 +6752,7 @@
         <v>404832</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>397031</v>
+        <v>397783</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>407793</v>
@@ -6761,7 +6761,7 @@
         <v>0.9927392680547945</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9736086532477922</v>
+        <v>0.9754523534005082</v>
       </c>
       <c r="I5" s="6" t="n">
         <v>1</v>
@@ -6773,19 +6773,19 @@
         <v>354708</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>343160</v>
+        <v>342776</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>360327</v>
+        <v>360351</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.9784721854566147</v>
+        <v>0.9784721854566145</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9466171961933065</v>
+        <v>0.9455569505922538</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9939721883947209</v>
+        <v>0.9940394304785813</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>373</v>
@@ -6794,19 +6794,19 @@
         <v>759540</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>748417</v>
+        <v>748793</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>766354</v>
+        <v>765811</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9860250599981772</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.971585655204604</v>
+        <v>0.9720733611799105</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9948706917885272</v>
+        <v>0.9941663185574598</v>
       </c>
     </row>
     <row r="6">
@@ -6898,19 +6898,19 @@
         <v>4051</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>1172</v>
+        <v>1000</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>11336</v>
+        <v>10595</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.008493936562406372</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.00245813838779007</v>
+        <v>0.002096852286142206</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.02377119231707372</v>
+        <v>0.0222166057476108</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>12</v>
@@ -6919,19 +6919,19 @@
         <v>13846</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>7601</v>
+        <v>7271</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>22820</v>
+        <v>22698</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.0276324619546323</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01516846644212319</v>
+        <v>0.01451068898181134</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.04554224149248733</v>
+        <v>0.04529818985042155</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>15</v>
@@ -6940,19 +6940,19 @@
         <v>17897</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>9835</v>
+        <v>10010</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>29010</v>
+        <v>29719</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01829992093985153</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01005658068166299</v>
+        <v>0.01023515070600222</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.02966301203253386</v>
+        <v>0.03038862553651003</v>
       </c>
     </row>
     <row r="8">
@@ -6969,19 +6969,19 @@
         <v>472839</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>465554</v>
+        <v>466295</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>475718</v>
+        <v>475890</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.9915060634375935</v>
+        <v>0.9915060634375937</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9762288076829261</v>
+        <v>0.9777833942523894</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9975418616122099</v>
+        <v>0.9979031477138627</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>448</v>
@@ -6990,19 +6990,19 @@
         <v>487237</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>478263</v>
+        <v>478385</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>493482</v>
+        <v>493812</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.9723675380453676</v>
+        <v>0.9723675380453677</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9544577585075115</v>
+        <v>0.9547018101495773</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9848315335578768</v>
+        <v>0.9854893110181886</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>747</v>
@@ -7011,19 +7011,19 @@
         <v>960076</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>948963</v>
+        <v>948254</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>968138</v>
+        <v>967963</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9817000790601484</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9703369879674663</v>
+        <v>0.96961137446349</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9899434193183372</v>
+        <v>0.9897648492939978</v>
       </c>
     </row>
     <row r="9">
@@ -7115,19 +7115,19 @@
         <v>14662</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>7545</v>
+        <v>7779</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>26613</v>
+        <v>24814</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.0236172028742789</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01215328211164921</v>
+        <v>0.01252980259654426</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.04286697862531089</v>
+        <v>0.03996884664420487</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>39</v>
@@ -7136,19 +7136,19 @@
         <v>27638</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>19953</v>
+        <v>19737</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>36995</v>
+        <v>37319</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.04442368538094209</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.0320721684674808</v>
+        <v>0.03172394917743748</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.05946498331413975</v>
+        <v>0.05998434814127335</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>51</v>
@@ -7157,19 +7157,19 @@
         <v>42300</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>31570</v>
+        <v>32140</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>56335</v>
+        <v>56816</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.03403134496337876</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02539848260257727</v>
+        <v>0.02585700520281046</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.04532265272915936</v>
+        <v>0.04570996643927114</v>
       </c>
     </row>
     <row r="11">
@@ -7186,19 +7186,19 @@
         <v>606175</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>594224</v>
+        <v>596023</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>613292</v>
+        <v>613058</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9763827971257212</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9571330213746897</v>
+        <v>0.9600311533557951</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9878467178883508</v>
+        <v>0.9874701974034557</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>807</v>
@@ -7207,19 +7207,19 @@
         <v>594501</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>585144</v>
+        <v>584820</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>602186</v>
+        <v>602402</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.9555763146190579</v>
+        <v>0.955576314619058</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9405350166858606</v>
+        <v>0.9400156518587266</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9679278315325193</v>
+        <v>0.9682760508225625</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1341</v>
@@ -7228,19 +7228,19 @@
         <v>1200676</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1186641</v>
+        <v>1186160</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1211406</v>
+        <v>1210836</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9659686550366213</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9546773472708405</v>
+        <v>0.9542900335607291</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9746015173974228</v>
+        <v>0.9741429947971895</v>
       </c>
     </row>
     <row r="12">
@@ -7332,19 +7332,19 @@
         <v>37388</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>26303</v>
+        <v>26053</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>52580</v>
+        <v>53988</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.05336429418430351</v>
+        <v>0.05336429418430349</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.03754205352406622</v>
+        <v>0.0371861898600777</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.07504785361576677</v>
+        <v>0.07705728628279301</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>93</v>
@@ -7353,19 +7353,19 @@
         <v>61485</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>49381</v>
+        <v>50397</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>73086</v>
+        <v>74148</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.08343921048101598</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.06701286004063342</v>
+        <v>0.0683918705594169</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.09918277164979206</v>
+        <v>0.1006227796448471</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>126</v>
@@ -7374,19 +7374,19 @@
         <v>98873</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>82087</v>
+        <v>82610</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>115716</v>
+        <v>117079</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.06878115787883628</v>
+        <v>0.06878115787883629</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.05710386750305955</v>
+        <v>0.05746789279626408</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.08049790443423085</v>
+        <v>0.08144620880498046</v>
       </c>
     </row>
     <row r="14">
@@ -7403,19 +7403,19 @@
         <v>663229</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>648037</v>
+        <v>646629</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>674314</v>
+        <v>674564</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9466357058156964</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9249521463842332</v>
+        <v>0.9229427137172077</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9624579464759339</v>
+        <v>0.9628138101399224</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1048</v>
@@ -7424,19 +7424,19 @@
         <v>675401</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>663800</v>
+        <v>662738</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>687505</v>
+        <v>686489</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.9165607895189841</v>
+        <v>0.9165607895189839</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9008172283502077</v>
+        <v>0.8993772203551527</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9329871399593666</v>
+        <v>0.931608129440583</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1680</v>
@@ -7445,19 +7445,19 @@
         <v>1338631</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1321788</v>
+        <v>1320425</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1355417</v>
+        <v>1354894</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9312188421211636</v>
+        <v>0.9312188421211637</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9195020955657692</v>
+        <v>0.9185537911950193</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9428961324969396</v>
+        <v>0.9425321072037355</v>
       </c>
     </row>
     <row r="15">
@@ -7549,19 +7549,19 @@
         <v>34295</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>24458</v>
+        <v>25285</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>46295</v>
+        <v>46436</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.05637338689538789</v>
+        <v>0.05637338689538787</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.04020316411150182</v>
+        <v>0.04156344487172391</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.07609819095018165</v>
+        <v>0.07632926587231632</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>123</v>
@@ -7570,19 +7570,19 @@
         <v>76553</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>65218</v>
+        <v>65310</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>90437</v>
+        <v>90059</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1260240303857245</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1073632606518222</v>
+        <v>0.1075149358495882</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1488802580085284</v>
+        <v>0.1482581461087363</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>161</v>
@@ -7591,19 +7591,19 @@
         <v>110848</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>93982</v>
+        <v>94719</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>126967</v>
+        <v>129526</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.09117260923396044</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.07730008820638139</v>
+        <v>0.07790598096464346</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1044305657269515</v>
+        <v>0.1065346681544009</v>
       </c>
     </row>
     <row r="17">
@@ -7620,19 +7620,19 @@
         <v>574064</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>562064</v>
+        <v>561923</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>583901</v>
+        <v>583074</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.9436266131046124</v>
+        <v>0.9436266131046122</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9239018090498176</v>
+        <v>0.9236707341276839</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9597968358884982</v>
+        <v>0.9584365551282763</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>877</v>
@@ -7641,19 +7641,19 @@
         <v>530895</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>517011</v>
+        <v>517389</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>542230</v>
+        <v>542138</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8739759696142755</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8511197419914717</v>
+        <v>0.8517418538912638</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8926367393481776</v>
+        <v>0.8924850641504117</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1501</v>
@@ -7662,19 +7662,19 @@
         <v>1104959</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1088840</v>
+        <v>1086281</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1121825</v>
+        <v>1121088</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9088273907660396</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8955694342730484</v>
+        <v>0.8934653318455991</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9226999117936185</v>
+        <v>0.9220940190353566</v>
       </c>
     </row>
     <row r="18">
@@ -7766,19 +7766,19 @@
         <v>9554</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>5201</v>
+        <v>5717</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>16451</v>
+        <v>16195</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.02347064543251981</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.01277717780065201</v>
+        <v>0.01404504322554552</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.04041260893959865</v>
+        <v>0.03978308159250527</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>94</v>
@@ -7787,19 +7787,19 @@
         <v>52275</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>42249</v>
+        <v>42712</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>63439</v>
+        <v>62338</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.1190327482382558</v>
+        <v>0.1190327482382557</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.09620286929953151</v>
+        <v>0.09725680210771179</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1444522579602928</v>
+        <v>0.1419452239145825</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>107</v>
@@ -7808,19 +7808,19 @@
         <v>61830</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>51220</v>
+        <v>50616</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>75362</v>
+        <v>75057</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.07306337436768286</v>
+        <v>0.07306337436768287</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.06052581568843268</v>
+        <v>0.05981180485038735</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.08905496290530389</v>
+        <v>0.08869403908403975</v>
       </c>
     </row>
     <row r="20">
@@ -7837,19 +7837,19 @@
         <v>397526</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>390629</v>
+        <v>390885</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>401879</v>
+        <v>401363</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9765293545674801</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9595873910604015</v>
+        <v>0.9602169184074945</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9872228221993481</v>
+        <v>0.9859549567744545</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>733</v>
@@ -7858,19 +7858,19 @@
         <v>386891</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>375727</v>
+        <v>376828</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>396917</v>
+        <v>396454</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.8809672517617443</v>
+        <v>0.8809672517617442</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8555477420397067</v>
+        <v>0.8580547760854176</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9037971307004682</v>
+        <v>0.9027431978922884</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1290</v>
@@ -7879,19 +7879,19 @@
         <v>784416</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>770884</v>
+        <v>771189</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>795026</v>
+        <v>795630</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.926936625632317</v>
+        <v>0.9269366256323172</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9109450370946958</v>
+        <v>0.9113059609159608</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9394741843115674</v>
+        <v>0.9401881951496132</v>
       </c>
     </row>
     <row r="21">
@@ -7983,19 +7983,19 @@
         <v>18843</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>13277</v>
+        <v>12844</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>27179</v>
+        <v>27575</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.06084076075251989</v>
+        <v>0.06084076075251987</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.04286898517305693</v>
+        <v>0.04147359276422879</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.08775792195326053</v>
+        <v>0.08903539522970881</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>86</v>
@@ -8004,19 +8004,19 @@
         <v>46656</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>37698</v>
+        <v>37525</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>56387</v>
+        <v>56972</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1007510499327545</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.08140764471786262</v>
+        <v>0.08103298549676438</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1217645341591039</v>
+        <v>0.1230295044902172</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>114</v>
@@ -8025,19 +8025,19 @@
         <v>65498</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>53889</v>
+        <v>55143</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>77417</v>
+        <v>77904</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.08475643278125485</v>
+        <v>0.08475643278125486</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.0697334922587111</v>
+        <v>0.07135678255504994</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1001798227016362</v>
+        <v>0.1008095361907226</v>
       </c>
     </row>
     <row r="23">
@@ -8054,19 +8054,19 @@
         <v>290860</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>282524</v>
+        <v>282128</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>296426</v>
+        <v>296859</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.9391592392474802</v>
+        <v>0.93915923924748</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9122420780467394</v>
+        <v>0.9109646047702927</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9571310148269433</v>
+        <v>0.9585264072357721</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>792</v>
@@ -8075,19 +8075,19 @@
         <v>416423</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>406692</v>
+        <v>406107</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>425381</v>
+        <v>425554</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.8992489500672455</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.8782354658408961</v>
+        <v>0.8769704955097829</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9185923552821373</v>
+        <v>0.9189670145032357</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1221</v>
@@ -8096,19 +8096,19 @@
         <v>707284</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>695365</v>
+        <v>694878</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>718893</v>
+        <v>717639</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.915243567218745</v>
+        <v>0.9152435672187452</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.8998201772983639</v>
+        <v>0.8991904638092774</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9302665077412889</v>
+        <v>0.9286432174449502</v>
       </c>
     </row>
     <row r="24">
@@ -8200,19 +8200,19 @@
         <v>121754</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>101963</v>
+        <v>101313</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>144919</v>
+        <v>145241</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.03447877504063267</v>
+        <v>0.03447877504063266</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.028874175203278</v>
+        <v>0.02869012686092539</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.04103873602857809</v>
+        <v>0.04112993669365869</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>451</v>
@@ -8221,19 +8221,19 @@
         <v>286257</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>260436</v>
+        <v>258279</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>316295</v>
+        <v>312387</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.07669694002990696</v>
+        <v>0.07669694002990694</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.06977869451680188</v>
+        <v>0.06920088941080593</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.08474513491205733</v>
+        <v>0.08369801475756017</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>580</v>
@@ -8242,19 +8242,19 @@
         <v>408011</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>377483</v>
+        <v>372553</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>445208</v>
+        <v>442586</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.05617209173434062</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.05196923747121174</v>
+        <v>0.05129042724910409</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.06129302740981669</v>
+        <v>0.06093205075749934</v>
       </c>
     </row>
     <row r="26">
@@ -8271,19 +8271,19 @@
         <v>3409526</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3386361</v>
+        <v>3386039</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3429317</v>
+        <v>3429967</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.9655212249593674</v>
+        <v>0.9655212249593673</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9589612639714221</v>
+        <v>0.9588700633063409</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9711258247967223</v>
+        <v>0.9713098731390747</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>4908</v>
@@ -8292,19 +8292,19 @@
         <v>3446056</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3416018</v>
+        <v>3419926</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>3471877</v>
+        <v>3474034</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.9233030599700932</v>
+        <v>0.9233030599700931</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9152548650879437</v>
+        <v>0.9163019852424402</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9302213054831984</v>
+        <v>0.9307991105891942</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>8153</v>
@@ -8313,19 +8313,19 @@
         <v>6855582</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>6818385</v>
+        <v>6821007</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>6886110</v>
+        <v>6891040</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.9438279082656592</v>
+        <v>0.9438279082656594</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9387069725901829</v>
+        <v>0.9390679492425003</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.948030762528788</v>
+        <v>0.9487095727508955</v>
       </c>
     </row>
     <row r="27">
